--- a/configuration/Discussion.xlsx
+++ b/configuration/Discussion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\file\Kuliah\Softtest\Project\CodeMain\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D61CF8A-624E-4114-8427-3BD42B88E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BF2D9F-3F78-458D-AC77-C8D5B0B7B5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>testcase1</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>This course is something</t>
+  </si>
+  <si>
+    <t>testcase2</t>
   </si>
 </sst>
 </file>
@@ -357,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,7 +378,7 @@
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,8 +388,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -389,6 +401,23 @@
       </c>
       <c r="C2">
         <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
